--- a/src/Shapefile_prep/geocodigos_nombres.xlsx
+++ b/src/Shapefile_prep/geocodigos_nombres.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -382,440 +382,440 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>AND</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ABW</t>
+          <t>BOL</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>ANDEAN</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ARUBA</t>
+          <t>BOLIVIA (PLURINATIONAL STATE OF)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>AND</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AIA</t>
+          <t>COL</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>ANDEAN</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>ANGUILLA</t>
+          <t>COLOMBIA</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>AND</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATG</t>
+          <t>ECU</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>ANDEAN</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ANTIGUA AND BARBUDA</t>
+          <t>ECUADOR</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>AND</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BES</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>ANDEAN</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BONAIRE, SAINT EUSTATIUS AND SABA</t>
+          <t>PERU</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>AND</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>BHS</t>
+          <t>VEN</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>ANDEAN</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BAHAMAS</t>
+          <t>VENEZUELA (BOLIVARIAN REPUBLIC OF)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>BLM</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>BRAZIL</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>SAINT BARTHELEMY</t>
+          <t>BRAZIL</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BLZ</t>
+          <t>CRI</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>CENTRAL AMERICA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>BELIZE</t>
+          <t>COSTA RICA</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>BMU</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>CENTRAL AMERICA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>BERMUDA</t>
+          <t>GUATEMALA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>BRB</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>CENTRAL AMERICA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>BARBADOS</t>
+          <t>HONDURAS</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CUW</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>CENTRAL AMERICA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CURACAO</t>
+          <t>NICARAGUA</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>CYM</t>
+          <t>PAN</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>CENTRAL AMERICA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CAYMAN ISLANDS</t>
+          <t>PANAMA</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>CAP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>DMA</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>CENTRAL AMERICA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DOMINICA</t>
+          <t>EL SALVADOR</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>LATIN CARRIBEAN</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>GUYANA</t>
+          <t>CUBA</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>DOM</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>LATIN CARRIBEAN</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>JAMAICA</t>
+          <t>DOMINICAN REPUBLIC</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>KNA</t>
+          <t>GLP</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>LATIN CARRIBEAN</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>SAINT KITTS AND NEVIS</t>
+          <t>GUADELOUPE</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>GUF</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>LATIN CARRIBEAN</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SAINT LUCIA</t>
+          <t>FRENCH GUYANA</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>LATIN CARRIBEAN</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SAINT MARTIN</t>
+          <t>HAITI</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>MSR</t>
+          <t>MTQ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>LATIN CARRIBEAN</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>MONTSERRAT</t>
+          <t>MARTINIQUE</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>LAC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SUR</t>
+          <t>PRI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>LATIN CARRIBEAN</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SURINAME</t>
+          <t>PUERTO RICO</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CAR</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SXM</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NON-LATIN CARIBBEAN</t>
+          <t>MEXICO</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SINT MAARTEN</t>
+          <t>MEXICO</t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>ABW</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>TURKS AND CAICOS ISLANDS</t>
+          <t>ARUBA</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TTO</t>
+          <t>AIA</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>TRINIDAD AND TOBAGO</t>
+          <t>ANGUILLA</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>VCT</t>
+          <t>ATG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SAINT VINCENT AND THE GRENADINES</t>
+          <t>ANTIGUA AND BARBUDA</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>VGB</t>
+          <t>BES</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>BRITISH VIRGIN ISLANDS</t>
+          <t>BONAIRE, SAINT EUSTATIUS AND SABA</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>VIR</t>
+          <t>BHS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -925,7 +925,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>UNITED STATES VIRGIN ISLANDS</t>
+          <t>BAHAMAS</t>
         </is>
       </c>
     </row>
@@ -937,17 +937,633 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>BLM</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SAINT BARTHELEMY</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>BLZ</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>BELIZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>BMU</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>BERMUDA</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>BRB</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>BARBADOS</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>CUW</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CURACAO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>CYM</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CAYMAN ISLANDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DMA</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>DOMINICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GUY</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GUYANA</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>JAM</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>JAMAICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>KNA</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SAINT KITTS AND NEVIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>LCA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SAINT LUCIA</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SAINT MARTIN</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>MSR</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>MONTSERRAT</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SUR</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SURINAME</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>SXM</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SINT MAARTEN</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>TCA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>TURKS AND CAICOS ISLANDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>TTO</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>TRINIDAD AND TOBAGO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>VCT</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SAINT VINCENT AND THE GRENADINES</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>VGB</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>BRITISH VIRGIN ISLANDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>VIR</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>UNITED STATES VIRGIN ISLANDS</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>GRD</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>NON-LATIN CARIBBEAN</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>NON-LATIN CARIBBEAN</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GRENADA</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NOA</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>NORTH AMERICA</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CANADA</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NOA</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>SPM</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NORTH AMERICA</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SAINT PIERRE AND MIQUELON</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NOA</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>NORTH AMERICA</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>UNITED STATES OF AMERICA</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ARG</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SOUTHERN CONE</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>ARGENTINA</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>CHL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SOUTHERN CONE</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CHILE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>FLK</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SOUTHERN CONE</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>FALKLAND ISLANDS (THE) (MALVINAS)</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>PRY</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SOUTHERN CONE</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>PARAGUAY</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SOC</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>URY</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SOUTHERN CONE</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>URUGUAY</t>
         </is>
       </c>
     </row>
